--- a/Energy community potential model_calibration/_sensetivity_network.xlsx
+++ b/Energy community potential model_calibration/_sensetivity_network.xlsx
@@ -8,20 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{112B357C-1C4D-46DA-8421-17A58DC27AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB7C57-BAD2-4394-8B6B-13D7E7ECC065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
-    <sheet name="baseCase_ECs" sheetId="3" r:id="rId2"/>
-    <sheet name="baseCase_projects" sheetId="2" r:id="rId3"/>
-    <sheet name="highContagion_ECs" sheetId="4" r:id="rId4"/>
-    <sheet name="highContagion_projects" sheetId="5" r:id="rId5"/>
-    <sheet name="highProf_ECs" sheetId="6" r:id="rId6"/>
-    <sheet name="highProf_projects" sheetId="7" r:id="rId7"/>
-    <sheet name="combined_ECs" sheetId="8" r:id="rId8"/>
-    <sheet name="combined_projects" sheetId="9" r:id="rId9"/>
+    <sheet name="sens_network_ECs" sheetId="3" r:id="rId2"/>
+    <sheet name="sens_network_projects" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
   <si>
     <t>year</t>
   </si>
@@ -6709,7 +6703,7 @@
   <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6862,37 +6856,37 @@
         <v>2009</v>
       </c>
       <c r="H3" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I3" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B2:$AE2)</f>
+        <f>AVERAGE(sens_network_projects!$B2:$AE2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O3" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P3" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R3" s="2" t="e">
         <f>M3*99/302660</f>
@@ -6900,31 +6894,31 @@
       </c>
       <c r="S3" s="2" t="e">
         <f t="shared" ref="S3:U3" si="0">N3*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T3" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U3" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W3" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X3" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y3" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z3" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB3" t="e">
         <f>_xlfn.CONFIDENCE.T(0.01, W3, 30)</f>
@@ -6932,31 +6926,31 @@
       </c>
       <c r="AC3" t="e">
         <f t="shared" ref="AC3:AE3" si="1">_xlfn.CONFIDENCE.T(0.01, X3, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD3" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE3" t="e">
         <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG3" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B2:$AE2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG3" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH3" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI3" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ3" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B2:$AE2)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL3" t="e">
         <f>_xlfn.CONFIDENCE.T(0.01, AG3, 30)</f>
@@ -6964,15 +6958,15 @@
       </c>
       <c r="AM3" t="e">
         <f t="shared" ref="AM3:AM34" si="2">_xlfn.CONFIDENCE.T(0.01, AH3, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN3" t="e">
         <f t="shared" ref="AN3:AN34" si="3">_xlfn.CONFIDENCE.T(0.01, AI3, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO3" t="e">
         <f t="shared" ref="AO3:AO34" si="4">_xlfn.CONFIDENCE.T(0.01, AJ3, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
@@ -6989,37 +6983,37 @@
         <v>2010</v>
       </c>
       <c r="H4" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I4" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B3:$AE3)</f>
+        <f>AVERAGE(sens_network_projects!$B3:$AE3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O4" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P4" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R4" s="2" t="e">
         <f t="shared" ref="R4:R34" si="5">M4*99/302660</f>
@@ -7027,31 +7021,31 @@
       </c>
       <c r="S4" s="2" t="e">
         <f t="shared" ref="S4:S34" si="6">N4*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T4" s="2" t="e">
         <f t="shared" ref="T4:T34" si="7">O4*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U4" s="2" t="e">
         <f t="shared" ref="U4:U34" si="8">P4*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W4" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X4" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y4" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z4" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB4" t="e">
         <f t="shared" ref="AB4:AB34" si="9">_xlfn.CONFIDENCE.T(0.01, W4, 30)</f>
@@ -7059,31 +7053,31 @@
       </c>
       <c r="AC4" t="e">
         <f t="shared" ref="AC4:AC34" si="10">_xlfn.CONFIDENCE.T(0.01, X4, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD4" t="e">
         <f t="shared" ref="AD4:AD34" si="11">_xlfn.CONFIDENCE.T(0.01, Y4, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE4" t="e">
         <f t="shared" ref="AE4:AE34" si="12">_xlfn.CONFIDENCE.T(0.01, Z4, 30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AG4" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B3:$AE3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH4" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI4" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ4" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B3:$AE3)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL4" t="e">
         <f t="shared" ref="AL4:AL34" si="13">_xlfn.CONFIDENCE.T(0.01, AG4, 30)</f>
@@ -7091,15 +7085,15 @@
       </c>
       <c r="AM4" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN4" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO4" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
@@ -7116,37 +7110,37 @@
         <v>2011</v>
       </c>
       <c r="H5" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I5" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B4:$AE4)</f>
+        <f>AVERAGE(sens_network_projects!$B4:$AE4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O5" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P5" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R5" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7154,31 +7148,31 @@
       </c>
       <c r="S5" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T5" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U5" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W5" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X5" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y5" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z5" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB5" t="e">
         <f t="shared" si="9"/>
@@ -7186,31 +7180,31 @@
       </c>
       <c r="AC5" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD5" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE5" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG5" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B4:$AE4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH5" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI5" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ5" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B4:$AE4)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL5" t="e">
         <f t="shared" si="13"/>
@@ -7218,15 +7212,15 @@
       </c>
       <c r="AM5" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN5" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
@@ -7243,37 +7237,37 @@
         <v>2012</v>
       </c>
       <c r="H6" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I6" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B5:$AE5)</f>
+        <f>AVERAGE(sens_network_projects!$B5:$AE5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O6" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P6" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R6" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7281,31 +7275,31 @@
       </c>
       <c r="S6" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T6" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U6" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W6" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X6" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y6" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z6" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB6" t="e">
         <f t="shared" si="9"/>
@@ -7313,31 +7307,31 @@
       </c>
       <c r="AC6" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD6" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE6" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG6" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B5:$AE5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH6" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI6" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ6" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B5:$AE5)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL6" t="e">
         <f t="shared" si="13"/>
@@ -7345,15 +7339,15 @@
       </c>
       <c r="AM6" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN6" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO6" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
@@ -7376,37 +7370,37 @@
         <v>2013</v>
       </c>
       <c r="H7" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B6:$AE6)</f>
+        <f>AVERAGE(sens_network_projects!$B6:$AE6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O7" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P7" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R7" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7414,31 +7408,31 @@
       </c>
       <c r="S7" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T7" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U7" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W7" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X7" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y7" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z7" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB7" t="e">
         <f t="shared" si="9"/>
@@ -7446,31 +7440,31 @@
       </c>
       <c r="AC7" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD7" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE7" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG7" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B6:$AE6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH7" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI7" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ7" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B6:$AE6)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL7" t="e">
         <f t="shared" si="13"/>
@@ -7478,15 +7472,15 @@
       </c>
       <c r="AM7" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN7" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO7" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
@@ -7494,37 +7488,37 @@
         <v>2014</v>
       </c>
       <c r="H8" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J8" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B7:$AE7)</f>
+        <f>AVERAGE(sens_network_projects!$B7:$AE7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O8" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P8" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R8" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7532,31 +7526,31 @@
       </c>
       <c r="S8" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T8" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U8" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W8" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X8" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y8" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z8" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB8" t="e">
         <f t="shared" si="9"/>
@@ -7564,31 +7558,31 @@
       </c>
       <c r="AC8" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD8" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE8" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG8" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B7:$AE7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH8" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI8" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ8" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B7:$AE7)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL8" t="e">
         <f t="shared" si="13"/>
@@ -7596,15 +7590,15 @@
       </c>
       <c r="AM8" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN8" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO8" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
@@ -7612,37 +7606,37 @@
         <v>2015</v>
       </c>
       <c r="H9" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I9" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J9" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K9" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B8:$AE8)</f>
+        <f>AVERAGE(sens_network_projects!$B8:$AE8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O9" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P9" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R9" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7650,31 +7644,31 @@
       </c>
       <c r="S9" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T9" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U9" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W9" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X9" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y9" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z9" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB9" t="e">
         <f t="shared" si="9"/>
@@ -7682,31 +7676,31 @@
       </c>
       <c r="AC9" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD9" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE9" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG9" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B8:$AE8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH9" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI9" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ9" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B8:$AE8)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL9" t="e">
         <f t="shared" si="13"/>
@@ -7714,15 +7708,15 @@
       </c>
       <c r="AM9" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN9" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO9" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
@@ -7730,37 +7724,37 @@
         <v>2016</v>
       </c>
       <c r="H10" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J10" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K10" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B9:$AE9)</f>
+        <f>AVERAGE(sens_network_projects!$B9:$AE9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O10" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P10" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R10" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7768,31 +7762,31 @@
       </c>
       <c r="S10" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T10" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U10" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W10" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X10" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y10" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z10" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB10" t="e">
         <f t="shared" si="9"/>
@@ -7800,31 +7794,31 @@
       </c>
       <c r="AC10" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD10" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE10" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG10" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B9:$AE9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH10" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI10" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ10" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B9:$AE9)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL10" t="e">
         <f t="shared" si="13"/>
@@ -7832,15 +7826,15 @@
       </c>
       <c r="AM10" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN10" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO10" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -7848,37 +7842,37 @@
         <v>2017</v>
       </c>
       <c r="H11" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I11" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J11" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K11" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B10:$AE10)</f>
+        <f>AVERAGE(sens_network_projects!$B10:$AE10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O11" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P11" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R11" s="2" t="e">
         <f t="shared" si="5"/>
@@ -7886,31 +7880,31 @@
       </c>
       <c r="S11" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T11" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U11" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W11" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X11" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y11" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z11" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB11" t="e">
         <f t="shared" si="9"/>
@@ -7918,31 +7912,31 @@
       </c>
       <c r="AC11" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD11" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE11" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG11" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B10:$AE10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH11" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI11" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ11" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B10:$AE10)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL11" t="e">
         <f t="shared" si="13"/>
@@ -7950,15 +7944,15 @@
       </c>
       <c r="AM11" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN11" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO11" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -7966,37 +7960,37 @@
         <v>2018</v>
       </c>
       <c r="H12" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I12" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J12" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B11:$AE11)</f>
+        <f>AVERAGE(sens_network_projects!$B11:$AE11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O12" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P12" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R12" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8004,31 +7998,31 @@
       </c>
       <c r="S12" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T12" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U12" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W12" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X12" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y12" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z12" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB12" t="e">
         <f t="shared" si="9"/>
@@ -8036,31 +8030,31 @@
       </c>
       <c r="AC12" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD12" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE12" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG12" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B11:$AE11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH12" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI12" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ12" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B11:$AE11)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL12" t="e">
         <f t="shared" si="13"/>
@@ -8068,15 +8062,15 @@
       </c>
       <c r="AM12" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN12" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO12" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -8084,37 +8078,37 @@
         <v>2019</v>
       </c>
       <c r="H13" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I13" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J13" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B12:$AE12)</f>
+        <f>AVERAGE(sens_network_projects!$B12:$AE12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O13" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P13" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R13" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8122,31 +8116,31 @@
       </c>
       <c r="S13" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T13" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U13" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W13" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X13" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y13" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z13" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB13" t="e">
         <f t="shared" si="9"/>
@@ -8154,31 +8148,31 @@
       </c>
       <c r="AC13" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD13" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE13" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG13" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B12:$AE12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG13" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH13" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI13" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ13" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B12:$AE12)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL13" t="e">
         <f t="shared" si="13"/>
@@ -8186,15 +8180,15 @@
       </c>
       <c r="AM13" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN13" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO13" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -8202,37 +8196,37 @@
         <v>2020</v>
       </c>
       <c r="H14" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I14" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J14" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B13:$AE13)</f>
+        <f>AVERAGE(sens_network_projects!$B13:$AE13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O14" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P14" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R14" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8240,31 +8234,31 @@
       </c>
       <c r="S14" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T14" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U14" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W14" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X14" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y14" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z14" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB14" t="e">
         <f t="shared" si="9"/>
@@ -8272,31 +8266,31 @@
       </c>
       <c r="AC14" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD14" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE14" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG14" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B13:$AE13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH14" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI14" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ14" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B13:$AE13)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL14" t="e">
         <f t="shared" si="13"/>
@@ -8304,15 +8298,15 @@
       </c>
       <c r="AM14" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN14" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO14" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -8320,37 +8314,37 @@
         <v>2021</v>
       </c>
       <c r="H15" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I15" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J15" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B14:$AE14)</f>
+        <f>AVERAGE(sens_network_projects!$B14:$AE14)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O15" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P15" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R15" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8358,31 +8352,31 @@
       </c>
       <c r="S15" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T15" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U15" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W15" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X15" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y15" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z15" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB15" t="e">
         <f t="shared" si="9"/>
@@ -8390,31 +8384,31 @@
       </c>
       <c r="AC15" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD15" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE15" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG15" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B14:$AE14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG15" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH15" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI15" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ15" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B14:$AE14)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL15" t="e">
         <f t="shared" si="13"/>
@@ -8422,15 +8416,15 @@
       </c>
       <c r="AM15" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN15" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO15" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -8438,37 +8432,37 @@
         <v>2022</v>
       </c>
       <c r="H16" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I16" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J16" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K16" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B15:$AE15)</f>
+        <f>AVERAGE(sens_network_projects!$B15:$AE15)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O16" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P16" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R16" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8476,31 +8470,31 @@
       </c>
       <c r="S16" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T16" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U16" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W16" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X16" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y16" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z16" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB16" t="e">
         <f t="shared" si="9"/>
@@ -8508,31 +8502,31 @@
       </c>
       <c r="AC16" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD16" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE16" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG16" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B15:$AE15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG16" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH16" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI16" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ16" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B15:$AE15)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL16" t="e">
         <f t="shared" si="13"/>
@@ -8540,15 +8534,15 @@
       </c>
       <c r="AM16" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN16" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO16" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="7:41" x14ac:dyDescent="0.3">
@@ -8556,37 +8550,37 @@
         <v>2023</v>
       </c>
       <c r="H17" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I17" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J17" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K17" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B16:$AE16)</f>
+        <f>AVERAGE(sens_network_projects!$B16:$AE16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O17" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P17" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R17" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8594,31 +8588,31 @@
       </c>
       <c r="S17" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T17" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U17" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W17" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X17" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y17" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z17" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB17" t="e">
         <f t="shared" si="9"/>
@@ -8626,31 +8620,31 @@
       </c>
       <c r="AC17" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD17" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE17" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG17" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B16:$AE16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH17" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI17" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ17" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B16:$AE16)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL17" t="e">
         <f t="shared" si="13"/>
@@ -8658,15 +8652,15 @@
       </c>
       <c r="AM17" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN17" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO17" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="7:41" x14ac:dyDescent="0.3">
@@ -8674,37 +8668,37 @@
         <v>2024</v>
       </c>
       <c r="H18" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I18" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K18" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B17:$AE17)</f>
+        <f>AVERAGE(sens_network_projects!$B17:$AE17)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O18" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P18" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R18" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8712,31 +8706,31 @@
       </c>
       <c r="S18" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T18" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U18" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W18" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X18" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y18" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z18" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB18" t="e">
         <f t="shared" si="9"/>
@@ -8744,31 +8738,31 @@
       </c>
       <c r="AC18" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD18" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE18" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG18" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B17:$AE17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH18" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI18" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ18" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B17:$AE17)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL18" t="e">
         <f t="shared" si="13"/>
@@ -8776,15 +8770,15 @@
       </c>
       <c r="AM18" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN18" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO18" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="7:41" x14ac:dyDescent="0.3">
@@ -8792,37 +8786,37 @@
         <v>2025</v>
       </c>
       <c r="H19" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I19" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J19" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K19" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B18:$AE18)</f>
+        <f>AVERAGE(sens_network_projects!$B18:$AE18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O19" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P19" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R19" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8830,31 +8824,31 @@
       </c>
       <c r="S19" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T19" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U19" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W19" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X19" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y19" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z19" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB19" t="e">
         <f t="shared" si="9"/>
@@ -8862,31 +8856,31 @@
       </c>
       <c r="AC19" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD19" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE19" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG19" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B18:$AE18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG19" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH19" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI19" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ19" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B18:$AE18)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL19" t="e">
         <f t="shared" si="13"/>
@@ -8894,15 +8888,15 @@
       </c>
       <c r="AM19" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN19" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO19" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="7:41" x14ac:dyDescent="0.3">
@@ -8910,37 +8904,37 @@
         <v>2026</v>
       </c>
       <c r="H20" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I20" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J20" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B19:$AE19)</f>
+        <f>AVERAGE(sens_network_projects!$B19:$AE19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O20" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P20" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R20" s="2" t="e">
         <f t="shared" si="5"/>
@@ -8948,31 +8942,31 @@
       </c>
       <c r="S20" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T20" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U20" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W20" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X20" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y20" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z20" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB20" t="e">
         <f t="shared" si="9"/>
@@ -8980,31 +8974,31 @@
       </c>
       <c r="AC20" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD20" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE20" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG20" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B19:$AE19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH20" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI20" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ20" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B19:$AE19)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL20" t="e">
         <f t="shared" si="13"/>
@@ -9012,15 +9006,15 @@
       </c>
       <c r="AM20" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN20" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO20" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="7:41" x14ac:dyDescent="0.3">
@@ -9028,37 +9022,37 @@
         <v>2027</v>
       </c>
       <c r="H21" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I21" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J21" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K21" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B20:$AE20)</f>
+        <f>AVERAGE(sens_network_projects!$B20:$AE20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O21" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P21" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R21" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9066,31 +9060,31 @@
       </c>
       <c r="S21" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T21" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U21" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W21" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X21" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y21" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z21" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB21" t="e">
         <f t="shared" si="9"/>
@@ -9098,31 +9092,31 @@
       </c>
       <c r="AC21" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD21" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE21" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG21" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B20:$AE20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG21" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH21" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI21" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ21" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B20:$AE20)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL21" t="e">
         <f t="shared" si="13"/>
@@ -9130,15 +9124,15 @@
       </c>
       <c r="AM21" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN21" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO21" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="7:41" x14ac:dyDescent="0.3">
@@ -9146,37 +9140,37 @@
         <v>2028</v>
       </c>
       <c r="H22" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I22" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J22" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K22" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B21:$AE21)</f>
+        <f>AVERAGE(sens_network_projects!$B21:$AE21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O22" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P22" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R22" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9184,31 +9178,31 @@
       </c>
       <c r="S22" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T22" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U22" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W22" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X22" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y22" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z22" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB22" t="e">
         <f t="shared" si="9"/>
@@ -9216,31 +9210,31 @@
       </c>
       <c r="AC22" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD22" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE22" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG22" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B21:$AE21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG22" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH22" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI22" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ22" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B21:$AE21)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL22" t="e">
         <f t="shared" si="13"/>
@@ -9248,15 +9242,15 @@
       </c>
       <c r="AM22" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN22" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO22" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="7:41" x14ac:dyDescent="0.3">
@@ -9264,37 +9258,37 @@
         <v>2029</v>
       </c>
       <c r="H23" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I23" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J23" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K23" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B22:$AE22)</f>
+        <f>AVERAGE(sens_network_projects!$B22:$AE22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O23" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P23" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R23" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9302,31 +9296,31 @@
       </c>
       <c r="S23" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T23" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U23" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W23" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X23" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y23" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z23" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB23" t="e">
         <f t="shared" si="9"/>
@@ -9334,31 +9328,31 @@
       </c>
       <c r="AC23" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD23" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE23" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG23" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B22:$AE22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH23" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI23" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ23" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B22:$AE22)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL23" t="e">
         <f t="shared" si="13"/>
@@ -9366,15 +9360,15 @@
       </c>
       <c r="AM23" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN23" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO23" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="7:41" x14ac:dyDescent="0.3">
@@ -9382,37 +9376,37 @@
         <v>2030</v>
       </c>
       <c r="H24" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I24" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J24" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K24" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B23:$AE23)</f>
+        <f>AVERAGE(sens_network_projects!$B23:$AE23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O24" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P24" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R24" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9420,31 +9414,31 @@
       </c>
       <c r="S24" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T24" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U24" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W24" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X24" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y24" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z24" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB24" t="e">
         <f t="shared" si="9"/>
@@ -9452,31 +9446,31 @@
       </c>
       <c r="AC24" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD24" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE24" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG24" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B23:$AE23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG24" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH24" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI24" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ24" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B23:$AE23)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL24" t="e">
         <f t="shared" si="13"/>
@@ -9484,15 +9478,15 @@
       </c>
       <c r="AM24" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN24" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO24" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="7:41" x14ac:dyDescent="0.3">
@@ -9500,37 +9494,37 @@
         <v>2031</v>
       </c>
       <c r="H25" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I25" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J25" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K25" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B24:$AE24)</f>
+        <f>AVERAGE(sens_network_projects!$B24:$AE24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O25" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P25" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R25" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9538,31 +9532,31 @@
       </c>
       <c r="S25" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T25" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U25" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W25" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X25" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y25" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z25" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB25" t="e">
         <f t="shared" si="9"/>
@@ -9570,31 +9564,31 @@
       </c>
       <c r="AC25" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD25" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE25" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG25" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B24:$AE24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG25" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH25" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI25" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ25" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B24:$AE24)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL25" t="e">
         <f t="shared" si="13"/>
@@ -9602,15 +9596,15 @@
       </c>
       <c r="AM25" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN25" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO25" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="7:41" x14ac:dyDescent="0.3">
@@ -9618,37 +9612,37 @@
         <v>2032</v>
       </c>
       <c r="H26" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I26" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J26" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K26" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B25:$AE25)</f>
+        <f>AVERAGE(sens_network_projects!$B25:$AE25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O26" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P26" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R26" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9656,31 +9650,31 @@
       </c>
       <c r="S26" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T26" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U26" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W26" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X26" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y26" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z26" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB26" t="e">
         <f t="shared" si="9"/>
@@ -9688,31 +9682,31 @@
       </c>
       <c r="AC26" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD26" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE26" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG26" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B25:$AE25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH26" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI26" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ26" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B25:$AE25)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL26" t="e">
         <f t="shared" si="13"/>
@@ -9720,15 +9714,15 @@
       </c>
       <c r="AM26" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN26" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO26" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="7:41" x14ac:dyDescent="0.3">
@@ -9736,37 +9730,37 @@
         <v>2033</v>
       </c>
       <c r="H27" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I27" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J27" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K27" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B26:$AE26)</f>
+        <f>AVERAGE(sens_network_projects!$B26:$AE26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O27" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P27" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R27" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9774,31 +9768,31 @@
       </c>
       <c r="S27" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T27" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U27" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W27" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X27" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y27" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z27" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB27" t="e">
         <f t="shared" si="9"/>
@@ -9806,31 +9800,31 @@
       </c>
       <c r="AC27" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD27" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE27" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG27" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B26:$AE26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH27" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI27" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ27" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B26:$AE26)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL27" t="e">
         <f t="shared" si="13"/>
@@ -9838,15 +9832,15 @@
       </c>
       <c r="AM27" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN27" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO27" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="7:41" x14ac:dyDescent="0.3">
@@ -9854,37 +9848,37 @@
         <v>2034</v>
       </c>
       <c r="H28" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I28" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J28" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K28" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B27:$AE27)</f>
+        <f>AVERAGE(sens_network_projects!$B27:$AE27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O28" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P28" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R28" s="2" t="e">
         <f t="shared" si="5"/>
@@ -9892,31 +9886,31 @@
       </c>
       <c r="S28" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T28" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U28" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W28" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X28" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y28" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z28" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB28" t="e">
         <f t="shared" si="9"/>
@@ -9924,31 +9918,31 @@
       </c>
       <c r="AC28" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD28" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE28" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG28" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B27:$AE27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH28" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI28" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ28" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B27:$AE27)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL28" t="e">
         <f t="shared" si="13"/>
@@ -9956,15 +9950,15 @@
       </c>
       <c r="AM28" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN28" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO28" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="7:41" x14ac:dyDescent="0.3">
@@ -9972,37 +9966,37 @@
         <v>2035</v>
       </c>
       <c r="H29" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I29" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J29" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K29" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B28:$AE28)</f>
+        <f>AVERAGE(sens_network_projects!$B28:$AE28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O29" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P29" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R29" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10010,31 +10004,31 @@
       </c>
       <c r="S29" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T29" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U29" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W29" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X29" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y29" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z29" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB29" t="e">
         <f t="shared" si="9"/>
@@ -10042,31 +10036,31 @@
       </c>
       <c r="AC29" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD29" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE29" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG29" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B28:$AE28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG29" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH29" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI29" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ29" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B28:$AE28)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL29" t="e">
         <f t="shared" si="13"/>
@@ -10074,15 +10068,15 @@
       </c>
       <c r="AM29" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN29" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO29" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="7:41" x14ac:dyDescent="0.3">
@@ -10090,37 +10084,37 @@
         <v>2036</v>
       </c>
       <c r="H30" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I30" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J30" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K30" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B29:$AE29)</f>
+        <f>AVERAGE(sens_network_projects!$B29:$AE29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O30" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P30" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R30" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10128,31 +10122,31 @@
       </c>
       <c r="S30" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T30" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U30" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W30" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X30" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y30" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z30" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB30" t="e">
         <f t="shared" si="9"/>
@@ -10160,31 +10154,31 @@
       </c>
       <c r="AC30" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD30" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE30" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG30" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B29:$AE29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH30" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI30" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ30" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B29:$AE29)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL30" t="e">
         <f t="shared" si="13"/>
@@ -10192,15 +10186,15 @@
       </c>
       <c r="AM30" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN30" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO30" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="7:41" x14ac:dyDescent="0.3">
@@ -10208,37 +10202,37 @@
         <v>2037</v>
       </c>
       <c r="H31" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I31" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J31" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K31" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B30:$AE30)</f>
+        <f>AVERAGE(sens_network_projects!$B30:$AE30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O31" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P31" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R31" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10246,31 +10240,31 @@
       </c>
       <c r="S31" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T31" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U31" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W31" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X31" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y31" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z31" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB31" t="e">
         <f t="shared" si="9"/>
@@ -10278,31 +10272,31 @@
       </c>
       <c r="AC31" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD31" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE31" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG31" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B30:$AE30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG31" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH31" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI31" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ31" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B30:$AE30)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL31" t="e">
         <f t="shared" si="13"/>
@@ -10310,15 +10304,15 @@
       </c>
       <c r="AM31" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN31" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO31" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="7:41" x14ac:dyDescent="0.3">
@@ -10326,37 +10320,37 @@
         <v>2038</v>
       </c>
       <c r="H32" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I32" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J32" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K32" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B31:$AE31)</f>
+        <f>AVERAGE(sens_network_projects!$B31:$AE31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O32" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P32" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R32" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10364,31 +10358,31 @@
       </c>
       <c r="S32" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T32" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U32" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W32" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X32" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y32" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z32" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB32" t="e">
         <f t="shared" si="9"/>
@@ -10396,31 +10390,31 @@
       </c>
       <c r="AC32" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD32" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE32" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG32" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B31:$AE31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH32" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI32" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ32" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B31:$AE31)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL32" t="e">
         <f t="shared" si="13"/>
@@ -10428,15 +10422,15 @@
       </c>
       <c r="AM32" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN32" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO32" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="7:41" x14ac:dyDescent="0.3">
@@ -10444,37 +10438,37 @@
         <v>2039</v>
       </c>
       <c r="H33" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I33" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J33" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K33" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B32:$AE32)</f>
+        <f>AVERAGE(sens_network_projects!$B32:$AE32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O33" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P33" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R33" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10482,31 +10476,31 @@
       </c>
       <c r="S33" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T33" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U33" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W33" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X33" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y33" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z33" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB33" t="e">
         <f t="shared" si="9"/>
@@ -10514,31 +10508,31 @@
       </c>
       <c r="AC33" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD33" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE33" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG33" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B32:$AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG33" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH33" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI33" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ33" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B32:$AE32)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL33" t="e">
         <f t="shared" si="13"/>
@@ -10546,15 +10540,15 @@
       </c>
       <c r="AM33" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN33" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO33" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="7:41" x14ac:dyDescent="0.3">
@@ -10562,37 +10556,37 @@
         <v>2040</v>
       </c>
       <c r="H34" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I34" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J34" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K34" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B33:$AE33)</f>
+        <f>AVERAGE(sens_network_projects!$B33:$AE33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O34" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P34" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R34" s="2" t="e">
         <f t="shared" si="5"/>
@@ -10600,31 +10594,31 @@
       </c>
       <c r="S34" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T34" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U34" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W34" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X34" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y34" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z34" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB34" t="e">
         <f t="shared" si="9"/>
@@ -10632,31 +10626,31 @@
       </c>
       <c r="AC34" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD34" t="e">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE34" t="e">
         <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG34" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B33:$AE33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH34" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI34" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ34" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B33:$AE33)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL34" t="e">
         <f t="shared" si="13"/>
@@ -10664,15 +10658,15 @@
       </c>
       <c r="AM34" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN34" t="e">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO34" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="7:41" x14ac:dyDescent="0.3">
@@ -10680,37 +10674,37 @@
         <v>2041</v>
       </c>
       <c r="H35" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I35" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J35" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K35" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B34:$AE34)</f>
+        <f>AVERAGE(sens_network_projects!$B34:$AE34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O35" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P35" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R35" s="2" t="e">
         <f t="shared" ref="R35:R44" si="14">M35*99/302660</f>
@@ -10718,31 +10712,31 @@
       </c>
       <c r="S35" s="2" t="e">
         <f t="shared" ref="S35:S44" si="15">N35*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T35" s="2" t="e">
         <f t="shared" ref="T35:T44" si="16">O35*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U35" s="2" t="e">
         <f t="shared" ref="U35:U44" si="17">P35*99/302660</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W35" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X35" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y35" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z35" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB35" t="e">
         <f t="shared" ref="AB35:AB44" si="18">_xlfn.CONFIDENCE.T(0.01, W35, 30)</f>
@@ -10750,31 +10744,31 @@
       </c>
       <c r="AC35" t="e">
         <f t="shared" ref="AC35:AC44" si="19">_xlfn.CONFIDENCE.T(0.01, X35, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD35" t="e">
         <f t="shared" ref="AD35:AD44" si="20">_xlfn.CONFIDENCE.T(0.01, Y35, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE35" t="e">
         <f t="shared" ref="AE35:AE44" si="21">_xlfn.CONFIDENCE.T(0.01, Z35, 30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AG35" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B34:$AE34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH35" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI35" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ35" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B34:$AE34)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL35" t="e">
         <f t="shared" ref="AL35:AL44" si="22">_xlfn.CONFIDENCE.T(0.01, AG35, 30)</f>
@@ -10782,15 +10776,15 @@
       </c>
       <c r="AM35" t="e">
         <f t="shared" ref="AM35:AM44" si="23">_xlfn.CONFIDENCE.T(0.01, AH35, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN35" t="e">
         <f t="shared" ref="AN35:AN44" si="24">_xlfn.CONFIDENCE.T(0.01, AI35, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO35" t="e">
         <f t="shared" ref="AO35:AO44" si="25">_xlfn.CONFIDENCE.T(0.01, AJ35, 30)</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="7:41" x14ac:dyDescent="0.3">
@@ -10798,37 +10792,37 @@
         <v>2042</v>
       </c>
       <c r="H36" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I36" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J36" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K36" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B35:$AE35)</f>
+        <f>AVERAGE(sens_network_projects!$B35:$AE35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O36" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P36" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R36" s="2" t="e">
         <f t="shared" si="14"/>
@@ -10836,31 +10830,31 @@
       </c>
       <c r="S36" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T36" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U36" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W36" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X36" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y36" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z36" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB36" t="e">
         <f t="shared" si="18"/>
@@ -10868,31 +10862,31 @@
       </c>
       <c r="AC36" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD36" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE36" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG36" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B35:$AE35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH36" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI36" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ36" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B35:$AE35)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL36" t="e">
         <f t="shared" si="22"/>
@@ -10900,15 +10894,15 @@
       </c>
       <c r="AM36" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN36" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO36" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="7:41" x14ac:dyDescent="0.3">
@@ -10916,37 +10910,37 @@
         <v>2043</v>
       </c>
       <c r="H37" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I37" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J37" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K37" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B36:$AE36)</f>
+        <f>AVERAGE(sens_network_projects!$B36:$AE36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O37" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P37" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R37" s="2" t="e">
         <f t="shared" si="14"/>
@@ -10954,31 +10948,31 @@
       </c>
       <c r="S37" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T37" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U37" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W37" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X37" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y37" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z37" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB37" t="e">
         <f t="shared" si="18"/>
@@ -10986,31 +10980,31 @@
       </c>
       <c r="AC37" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD37" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE37" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG37" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B36:$AE36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH37" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI37" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ37" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B36:$AE36)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL37" t="e">
         <f t="shared" si="22"/>
@@ -11018,15 +11012,15 @@
       </c>
       <c r="AM37" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN37" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO37" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="7:41" x14ac:dyDescent="0.3">
@@ -11034,37 +11028,37 @@
         <v>2044</v>
       </c>
       <c r="H38" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I38" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J38" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K38" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B37:$AE37)</f>
+        <f>AVERAGE(sens_network_projects!$B37:$AE37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O38" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P38" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R38" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11072,31 +11066,31 @@
       </c>
       <c r="S38" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T38" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U38" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W38" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X38" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y38" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z38" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB38" t="e">
         <f t="shared" si="18"/>
@@ -11104,31 +11098,31 @@
       </c>
       <c r="AC38" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD38" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE38" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG38" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B37:$AE37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG38" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH38" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI38" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ38" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B37:$AE37)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL38" t="e">
         <f t="shared" si="22"/>
@@ -11136,15 +11130,15 @@
       </c>
       <c r="AM38" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN38" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO38" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="7:41" x14ac:dyDescent="0.3">
@@ -11152,37 +11146,37 @@
         <v>2045</v>
       </c>
       <c r="H39" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I39" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J39" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K39" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B38:$AE38)</f>
+        <f>AVERAGE(sens_network_projects!$B38:$AE38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O39" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P39" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R39" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11190,31 +11184,31 @@
       </c>
       <c r="S39" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T39" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U39" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W39" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X39" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y39" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z39" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB39" t="e">
         <f t="shared" si="18"/>
@@ -11222,31 +11216,31 @@
       </c>
       <c r="AC39" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD39" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE39" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG39" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B38:$AE38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH39" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI39" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ39" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B38:$AE38)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL39" t="e">
         <f t="shared" si="22"/>
@@ -11254,15 +11248,15 @@
       </c>
       <c r="AM39" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN39" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO39" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="7:41" x14ac:dyDescent="0.3">
@@ -11270,37 +11264,37 @@
         <v>2046</v>
       </c>
       <c r="H40" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I40" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J40" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K40" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B39:$AE39)</f>
+        <f>AVERAGE(sens_network_projects!$B39:$AE39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O40" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P40" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R40" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11308,31 +11302,31 @@
       </c>
       <c r="S40" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T40" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U40" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W40" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X40" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y40" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z40" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB40" t="e">
         <f t="shared" si="18"/>
@@ -11340,31 +11334,31 @@
       </c>
       <c r="AC40" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD40" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE40" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG40" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B39:$AE39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG40" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH40" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI40" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ40" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B39:$AE39)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL40" t="e">
         <f t="shared" si="22"/>
@@ -11372,15 +11366,15 @@
       </c>
       <c r="AM40" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN40" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO40" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="7:41" x14ac:dyDescent="0.3">
@@ -11388,37 +11382,37 @@
         <v>2047</v>
       </c>
       <c r="H41" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I41" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J41" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K41" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B40:$AE40)</f>
+        <f>AVERAGE(sens_network_projects!$B40:$AE40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O41" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P41" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R41" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11426,31 +11420,31 @@
       </c>
       <c r="S41" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T41" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U41" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W41" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X41" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y41" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z41" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB41" t="e">
         <f t="shared" si="18"/>
@@ -11458,31 +11452,31 @@
       </c>
       <c r="AC41" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD41" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE41" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG41" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B40:$AE40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG41" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH41" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI41" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ41" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B40:$AE40)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL41" t="e">
         <f t="shared" si="22"/>
@@ -11490,15 +11484,15 @@
       </c>
       <c r="AM41" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN41" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO41" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="7:41" x14ac:dyDescent="0.3">
@@ -11506,37 +11500,37 @@
         <v>2048</v>
       </c>
       <c r="H42" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I42" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J42" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K42" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B41:$AE41)</f>
+        <f>AVERAGE(sens_network_projects!$B41:$AE41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O42" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P42" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R42" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11544,31 +11538,31 @@
       </c>
       <c r="S42" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T42" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U42" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W42" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X42" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y42" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z42" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB42" t="e">
         <f t="shared" si="18"/>
@@ -11576,31 +11570,31 @@
       </c>
       <c r="AC42" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD42" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE42" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG42" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B41:$AE41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG42" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH42" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI42" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ42" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B41:$AE41)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL42" t="e">
         <f t="shared" si="22"/>
@@ -11608,15 +11602,15 @@
       </c>
       <c r="AM42" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN42" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO42" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="7:41" x14ac:dyDescent="0.3">
@@ -11624,37 +11618,37 @@
         <v>2049</v>
       </c>
       <c r="H43" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I43" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J43" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K43" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B42:$AE42)</f>
+        <f>AVERAGE(sens_network_projects!$B42:$AE42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O43" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P43" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R43" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11662,31 +11656,31 @@
       </c>
       <c r="S43" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T43" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U43" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W43" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X43" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y43" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z43" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB43" t="e">
         <f t="shared" si="18"/>
@@ -11694,31 +11688,31 @@
       </c>
       <c r="AC43" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD43" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE43" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG43" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B42:$AE42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH43" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI43" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ43" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B42:$AE42)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL43" t="e">
         <f t="shared" si="22"/>
@@ -11726,15 +11720,15 @@
       </c>
       <c r="AM43" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN43" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO43" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="7:41" x14ac:dyDescent="0.3">
@@ -11742,37 +11736,37 @@
         <v>2050</v>
       </c>
       <c r="H44" s="1" t="e">
-        <f>AVERAGE(baseCase_ECs!#REF!)</f>
+        <f>AVERAGE(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I44" s="1" t="e">
-        <f>AVERAGE(highContagion_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J44" s="1" t="e">
-        <f>AVERAGE(highProf_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K44" s="1" t="e">
-        <f>AVERAGE(combined_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="e">
-        <f>AVERAGE(baseCase_projects!$B43:$AE43)</f>
+        <f>AVERAGE(sens_network_projects!$B43:$AE43)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="1" t="e">
-        <f>AVERAGE(highContagion_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="O44" s="1" t="e">
-        <f>AVERAGE(highProf_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="P44" s="1" t="e">
-        <f>AVERAGE(combined_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="R44" s="2" t="e">
         <f t="shared" si="14"/>
@@ -11780,31 +11774,31 @@
       </c>
       <c r="S44" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="T44" s="2" t="e">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="U44" s="2" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="W44" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_ECs!#REF!)</f>
+        <f>_xlfn.STDEV.S(sens_network_ECs!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="X44" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y44" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="Z44" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_ECs!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AB44" t="e">
         <f t="shared" si="18"/>
@@ -11812,31 +11806,31 @@
       </c>
       <c r="AC44" t="e">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AD44" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE44" t="e">
         <f t="shared" si="21"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AG44" s="1" t="e">
+        <f>_xlfn.STDEV.S(sens_network_projects!$B43:$AE43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG44" s="1" t="e">
-        <f>_xlfn.STDEV.S(baseCase_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AH44" s="1" t="e">
-        <f>_xlfn.STDEV.S(highContagion_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AI44" s="1" t="e">
-        <f>_xlfn.STDEV.S(highProf_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AJ44" s="1" t="e">
-        <f>_xlfn.STDEV.S(combined_projects!$B43:$AE43)</f>
-        <v>#DIV/0!</v>
+        <f>_xlfn.STDEV.S(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="AL44" t="e">
         <f t="shared" si="22"/>
@@ -11844,15 +11838,15 @@
       </c>
       <c r="AM44" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AN44" t="e">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO44" t="e">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -11865,8 +11859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16728A04-9240-4A2C-B442-0C4B0C9363A3}">
   <dimension ref="A1:FY58"/>
   <sheetViews>
-    <sheetView topLeftCell="XH1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="XS1" sqref="XS1:AOA58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41310,8 +41304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0AC5A-1684-4C3E-A160-38DA93C8AF3A}">
   <dimension ref="A1:FY58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AOA1048576"/>
+    <sheetView topLeftCell="FD1" workbookViewId="0">
+      <selection activeCell="FY1" sqref="FY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64804,1384 +64798,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34EB04-9DCE-47D1-A678-837EC7AF32F4}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CW1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C6663-4258-4BB1-8B23-9D9048F58A3A}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B26" sqref="B1:CW1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DEA5D-7D16-4D7C-80CC-6B52927EB1DB}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:CW1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DCED01-41C4-4293-BF47-F8802DC6CB72}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CW43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AC7A9F-6D73-4CFF-96A3-71BAE4EEE7D4}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:CW1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB22AD7-BDA6-4E47-8803-33CB0B809BBD}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CW1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>